--- a/Tablas de porcentajes.xlsx
+++ b/Tablas de porcentajes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t xml:space="preserve">Ganador</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t xml:space="preserve">PRI_PVEM_PRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Pedro Yaneri</t>
   </si>
   <si>
     <t xml:space="preserve">PAN_PRI_PVEM_PNA</t>
@@ -1115,24 +1118,24 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -1152,10 +1155,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1163,26 +1166,26 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R3" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S3" t="n">
         <v>0.567951318458418</v>
@@ -1191,7 +1194,7 @@
         <v>0.649087221095335</v>
       </c>
       <c r="U3" t="n">
-        <v>1.17934119560797</v>
+        <v>1.17694805194805</v>
       </c>
     </row>
     <row r="4">
@@ -1199,55 +1202,55 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0260905014268</v>
+        <v>12.0081135902637</v>
       </c>
       <c r="C4" t="n">
-        <v>12.958435207824</v>
+        <v>12.9006085192698</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1687677917853</v>
+        <v>15.131845841785</v>
       </c>
       <c r="E4" t="n">
-        <v>15.9756097560976</v>
+        <v>15.9432048681542</v>
       </c>
       <c r="F4" t="n">
-        <v>18.3333333333333</v>
+        <v>18.2961460446247</v>
       </c>
       <c r="G4" t="n">
-        <v>20.9926769731489</v>
+        <v>20.9330628803245</v>
       </c>
       <c r="H4" t="n">
-        <v>20.4148027653518</v>
+        <v>20.3651115618661</v>
       </c>
       <c r="I4" t="n">
-        <v>20.3334688897926</v>
+        <v>20.2839756592292</v>
       </c>
       <c r="J4" t="n">
-        <v>17.3030056864338</v>
+        <v>17.2819472616633</v>
       </c>
       <c r="K4" t="n">
-        <v>16.4906580016247</v>
+        <v>16.4705882352941</v>
       </c>
       <c r="L4" t="n">
-        <v>16.246953696182</v>
+        <v>16.2271805273834</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4845360824742</v>
+        <v>13.3928571428571</v>
       </c>
       <c r="N4" t="n">
-        <v>13.4845360824742</v>
+        <v>13.3928571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>9.44329896907217</v>
+        <v>9.41558441558442</v>
       </c>
       <c r="P4" t="n">
-        <v>9.57792207792208</v>
+        <v>9.57403651115619</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.29383116883117</v>
+        <v>9.29006085192698</v>
       </c>
       <c r="R4" t="n">
-        <v>11.7288961038961</v>
+        <v>11.7241379310345</v>
       </c>
       <c r="S4" t="n">
         <v>13.5496957403651</v>
@@ -1256,7 +1259,7 @@
         <v>11.4807302231237</v>
       </c>
       <c r="U4" t="n">
-        <v>6.42537616917446</v>
+        <v>6.45292207792208</v>
       </c>
     </row>
     <row r="5">
@@ -1264,13 +1267,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244598450876478</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244498777506112</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1291,7 +1294,7 @@
         <v>0.405679513184584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.406669377795852</v>
+        <v>0.405844155844156</v>
       </c>
     </row>
     <row r="6">
@@ -1299,16 +1302,16 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E6" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1332,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1359,10 +1362,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1377,13 +1380,13 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R8" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S8" t="n">
         <v>0.162271805273834</v>
@@ -1396,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1423,55 +1426,55 @@
         <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>10.8846310640033</v>
+        <v>10.8316430020284</v>
       </c>
       <c r="C10" t="n">
-        <v>8.43520782396088</v>
+        <v>8.39756592292089</v>
       </c>
       <c r="D10" t="n">
-        <v>8.21472143147621</v>
+        <v>8.1947261663286</v>
       </c>
       <c r="E10" t="n">
-        <v>9.02439024390244</v>
+        <v>9.00608519269777</v>
       </c>
       <c r="F10" t="n">
-        <v>10.3252032520325</v>
+        <v>10.3042596348884</v>
       </c>
       <c r="G10" t="n">
-        <v>12.1236777868186</v>
+        <v>12.0892494929006</v>
       </c>
       <c r="H10" t="n">
-        <v>12.8100854005693</v>
+        <v>12.7789046653144</v>
       </c>
       <c r="I10" t="n">
-        <v>10.8174054493697</v>
+        <v>10.7910750507099</v>
       </c>
       <c r="J10" t="n">
-        <v>7.18927701056052</v>
+        <v>7.18052738336714</v>
       </c>
       <c r="K10" t="n">
-        <v>5.88952071486596</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L10" t="n">
-        <v>6.70186839967506</v>
+        <v>6.69371196754564</v>
       </c>
       <c r="M10" t="n">
-        <v>3.58762886597938</v>
+        <v>3.69318181818182</v>
       </c>
       <c r="N10" t="n">
-        <v>3.38144329896907</v>
+        <v>3.53084415584416</v>
       </c>
       <c r="O10" t="n">
-        <v>2.80412371134021</v>
+        <v>2.96266233766234</v>
       </c>
       <c r="P10" t="n">
-        <v>4.01785714285714</v>
+        <v>4.01622718052738</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.97727272727273</v>
+        <v>3.97565922920893</v>
       </c>
       <c r="R10" t="n">
-        <v>4.38311688311688</v>
+        <v>4.38133874239351</v>
       </c>
       <c r="S10" t="n">
         <v>4.82758620689655</v>
@@ -1480,7 +1483,7 @@
         <v>3.40770791075051</v>
       </c>
       <c r="U10" t="n">
-        <v>3.2940219601464</v>
+        <v>3.28733766233766</v>
       </c>
     </row>
     <row r="11">
@@ -1488,55 +1491,55 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122299225438239</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.162999185004075</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="D11" t="n">
-        <v>0.366002440016267</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="E11" t="n">
-        <v>0.447154471544715</v>
+        <v>0.446247464503043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.447154471544715</v>
+        <v>0.446247464503043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.406834825061025</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="H11" t="n">
-        <v>0.650671004473363</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62667751118341</v>
+        <v>1.62271805273834</v>
       </c>
       <c r="J11" t="n">
-        <v>1.54346060113729</v>
+        <v>1.54158215010142</v>
       </c>
       <c r="K11" t="n">
-        <v>1.2591389114541</v>
+        <v>1.25760649087221</v>
       </c>
       <c r="L11" t="n">
-        <v>0.446791226645004</v>
+        <v>0.446247464503043</v>
       </c>
       <c r="M11" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11340206185567</v>
+        <v>1.09577922077922</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03092783505155</v>
+        <v>1.01461038961039</v>
       </c>
       <c r="P11" t="n">
-        <v>1.05519480519481</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.05519480519481</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="R11" t="n">
-        <v>2.11038961038961</v>
+        <v>2.10953346855984</v>
       </c>
       <c r="S11" t="n">
         <v>2.1501014198783</v>
@@ -1545,7 +1548,7 @@
         <v>2.1501014198783</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="12">
@@ -1553,37 +1556,37 @@
         <v>31</v>
       </c>
       <c r="B12" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E12" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F12" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="L12" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="M12" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="n">
-        <v>0.243506493506494</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="S12" t="n">
         <v>0.243407707910751</v>
@@ -1592,7 +1595,7 @@
         <v>0.243407707910751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.325335502236682</v>
+        <v>0.324675324675325</v>
       </c>
     </row>
     <row r="13">
@@ -1600,55 +1603,55 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>56.5022421524664</v>
+        <v>56.2677484787018</v>
       </c>
       <c r="C13" t="n">
-        <v>53.0154849225754</v>
+        <v>52.8194726166329</v>
       </c>
       <c r="D13" t="n">
-        <v>46.766978446523</v>
+        <v>46.6937119675456</v>
       </c>
       <c r="E13" t="n">
-        <v>40.2439024390244</v>
+        <v>40.1622718052738</v>
       </c>
       <c r="F13" t="n">
-        <v>35.2032520325203</v>
+        <v>35.131845841785</v>
       </c>
       <c r="G13" t="n">
-        <v>25.9967453213995</v>
+        <v>25.9229208924949</v>
       </c>
       <c r="H13" t="n">
-        <v>27.2061813745425</v>
+        <v>27.1399594320487</v>
       </c>
       <c r="I13" t="n">
-        <v>24.4408296055307</v>
+        <v>24.3813387423935</v>
       </c>
       <c r="J13" t="n">
-        <v>19.1714053614947</v>
+        <v>19.1480730223124</v>
       </c>
       <c r="K13" t="n">
-        <v>18.034118602762</v>
+        <v>18.0121703853955</v>
       </c>
       <c r="L13" t="n">
-        <v>15.0284321689683</v>
+        <v>15.0101419878296</v>
       </c>
       <c r="M13" t="n">
-        <v>10.7628865979381</v>
+        <v>11.1607142857143</v>
       </c>
       <c r="N13" t="n">
-        <v>10.0618556701031</v>
+        <v>10.4301948051948</v>
       </c>
       <c r="O13" t="n">
-        <v>6.51546391752577</v>
+        <v>6.93993506493506</v>
       </c>
       <c r="P13" t="n">
-        <v>9.13149350649351</v>
+        <v>9.12778904665314</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.13149350649351</v>
+        <v>9.12778904665314</v>
       </c>
       <c r="R13" t="n">
-        <v>15.2191558441558</v>
+        <v>15.2129817444219</v>
       </c>
       <c r="S13" t="n">
         <v>12.6977687626775</v>
@@ -1657,7 +1660,7 @@
         <v>12.9411764705882</v>
       </c>
       <c r="U13" t="n">
-        <v>15.6567710451403</v>
+        <v>15.6655844155844</v>
       </c>
     </row>
     <row r="14">
@@ -1665,55 +1668,55 @@
         <v>33</v>
       </c>
       <c r="B14" t="n">
-        <v>1.14145943742356</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="C14" t="n">
-        <v>0.814995925020375</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05734038226922</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="E14" t="n">
-        <v>1.17886178861789</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="F14" t="n">
-        <v>1.26016260162602</v>
+        <v>1.25760649087221</v>
       </c>
       <c r="G14" t="n">
-        <v>0.976403580146461</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="H14" t="n">
-        <v>0.854005693371289</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="I14" t="n">
-        <v>0.732004880032534</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="J14" t="n">
-        <v>0.974817221770918</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="K14" t="n">
-        <v>0.934199837530463</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17790414297319</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="M14" t="n">
-        <v>1.27835051546392</v>
+        <v>1.25811688311688</v>
       </c>
       <c r="N14" t="n">
-        <v>1.44329896907216</v>
+        <v>1.42045454545455</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31958762886598</v>
+        <v>1.2987012987013</v>
       </c>
       <c r="P14" t="n">
-        <v>2.23214285714286</v>
+        <v>2.23123732251521</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.23214285714286</v>
+        <v>2.23123732251521</v>
       </c>
       <c r="R14" t="n">
-        <v>2.11038961038961</v>
+        <v>2.10953346855984</v>
       </c>
       <c r="S14" t="n">
         <v>2.71805273833671</v>
@@ -1722,7 +1725,7 @@
         <v>2.55578093306288</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01667344448963</v>
+        <v>1.01461038961039</v>
       </c>
     </row>
     <row r="15">
@@ -1730,55 +1733,55 @@
         <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>0.366897676314717</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.611246943765281</v>
+        <v>0.608519269776876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.93533956893046</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="E15" t="n">
-        <v>0.975609756097561</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="F15" t="n">
-        <v>1.26016260162602</v>
+        <v>1.25760649087221</v>
       </c>
       <c r="G15" t="n">
-        <v>1.09845402766477</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="H15" t="n">
-        <v>1.17934119560797</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="I15" t="n">
-        <v>1.13867425782839</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01543460601137</v>
+        <v>1.01419878296146</v>
       </c>
       <c r="K15" t="n">
-        <v>1.17790414297319</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34037367993501</v>
+        <v>1.33874239350913</v>
       </c>
       <c r="M15" t="n">
-        <v>1.60824742268041</v>
+        <v>1.58279220779221</v>
       </c>
       <c r="N15" t="n">
-        <v>1.48453608247423</v>
+        <v>1.46103896103896</v>
       </c>
       <c r="O15" t="n">
-        <v>2.68041237113402</v>
+        <v>2.63798701298701</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88149350649351</v>
+        <v>2.88032454361055</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.88149350649351</v>
+        <v>2.88032454361055</v>
       </c>
       <c r="R15" t="n">
-        <v>3.69318181818182</v>
+        <v>3.69168356997972</v>
       </c>
       <c r="S15" t="n">
         <v>3.85395537525355</v>
@@ -1787,7 +1790,7 @@
         <v>4.05679513184584</v>
       </c>
       <c r="U15" t="n">
-        <v>4.10736071573811</v>
+        <v>4.09902597402597</v>
       </c>
     </row>
     <row r="16">
@@ -1795,125 +1798,123 @@
         <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6110884631064</v>
+        <v>17.606490872211</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9519152404238</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="D16" t="n">
-        <v>16.9174461163074</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="E16" t="n">
-        <v>16.9105691056911</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="F16" t="n">
-        <v>16.9105691056911</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="G16" t="n">
-        <v>16.9650122050448</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="H16" t="n">
-        <v>16.958113054087</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="I16" t="n">
-        <v>16.958113054087</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="J16" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="K16" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="L16" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="M16" t="n">
-        <v>17.1958762886598</v>
+        <v>17.6136363636364</v>
       </c>
       <c r="N16" t="n">
-        <v>17.2371134020619</v>
+        <v>17.6542207792208</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2371134020619</v>
+        <v>17.6542207792208</v>
       </c>
       <c r="P16" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="R16" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="S16" t="n">
-        <v>16.9168356997972</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="T16" t="n">
-        <v>16.9168356997972</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="U16" t="n">
-        <v>17.0394469296462</v>
+        <v>17.0454545454545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="n">
-        <v>0.815328169588259</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.814995925020375</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.732004880032534</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="E17" t="n">
-        <v>0.691056910569106</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="F17" t="n">
-        <v>0.691056910569106</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="G17" t="n">
-        <v>0.610252237591538</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="H17" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="I17" t="n">
-        <v>0.528670191134608</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="J17" t="n">
-        <v>0.487408610885459</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="K17" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="M17" t="n">
-        <v>0.288659793814433</v>
+        <v>0.284090909090909</v>
       </c>
       <c r="N17" t="n">
-        <v>0.247422680412371</v>
+        <v>0.243506493506494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="P17" t="n">
-        <v>0.121753246753247</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.121753246753247</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S17" t="n">
         <v>0.0405679513184584</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
+      <c r="T17"/>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -1924,52 +1925,52 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="n">
-        <v>0.244498777506112</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.650671004473363</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="E18" t="n">
-        <v>0.853658536585366</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="F18" t="n">
-        <v>0.894308943089431</v>
+        <v>0.892494929006085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.65093572009764</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="H18" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="I18" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="J18" t="n">
-        <v>0.771730300568643</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="K18" t="n">
-        <v>0.852965069049553</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="L18" t="n">
-        <v>1.09666937449228</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="M18" t="n">
-        <v>0.65979381443299</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="N18" t="n">
-        <v>0.65979381443299</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="O18" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8262987012987</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8262987012987</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="R18" t="n">
-        <v>3.36850649350649</v>
+        <v>3.36713995943205</v>
       </c>
       <c r="S18" t="n">
         <v>3.40770791075051</v>
@@ -1978,7 +1979,7 @@
         <v>3.20486815415821</v>
       </c>
       <c r="U18" t="n">
-        <v>2.84668564457096</v>
+        <v>2.88149350649351</v>
       </c>
     </row>
     <row r="19">
@@ -1987,13 +1988,13 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E19" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -2018,16 +2019,16 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E20" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -2051,57 +2052,57 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="n">
-        <v>0.814995925020375</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.976006506710045</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="E21" t="n">
-        <v>0.975609756097561</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="F21" t="n">
-        <v>0.48780487804878</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="G21" t="n">
-        <v>0.244100895036615</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="H21" t="n">
-        <v>0.284668564457096</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="I21" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N21" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="O21" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="P21" t="n">
-        <v>1.05519480519481</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.05519480519481</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25811688311688</v>
+        <v>1.25760649087221</v>
       </c>
       <c r="S21" t="n">
-        <v>3.56997971602434</v>
+        <v>3.52941176470588</v>
       </c>
       <c r="T21" t="n">
-        <v>7.95131845841785</v>
+        <v>7.91075050709939</v>
       </c>
       <c r="U21" t="n">
-        <v>5.7747051647011</v>
+        <v>5.76298701298701</v>
       </c>
     </row>
     <row r="22">
@@ -2110,13 +2111,13 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E22" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -2141,48 +2142,48 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E23" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R23" t="n">
-        <v>0.487012987012987</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="S23" t="n">
         <v>0.446247464503043</v>
@@ -2198,34 +2199,34 @@
       </c>
       <c r="B24"/>
       <c r="C24" t="n">
-        <v>0.407497962510187</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="D24" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="E24" t="n">
-        <v>0.569105691056911</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.24390243902439</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
@@ -2241,19 +2242,19 @@
       </c>
       <c r="B25"/>
       <c r="C25" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="F25" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -2266,7 +2267,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S25" t="n">
         <v>0.162271805273834</v>
@@ -2282,50 +2283,50 @@
       </c>
       <c r="B26"/>
       <c r="C26" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E26" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F26" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="I26" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="J26" t="n">
-        <v>1.70593013809911</v>
+        <v>1.70385395537525</v>
       </c>
       <c r="K26" t="n">
-        <v>1.46222583265638</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="L26" t="n">
-        <v>1.50284321689683</v>
+        <v>1.50101419878296</v>
       </c>
       <c r="M26" t="n">
-        <v>0.65979381443299</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="N26" t="n">
-        <v>0.865979381443299</v>
+        <v>0.852272727272727</v>
       </c>
       <c r="O26" t="n">
-        <v>1.03092783505155</v>
+        <v>1.01461038961039</v>
       </c>
       <c r="P26" t="n">
-        <v>0.487012987012987</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.487012987012987</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S26" t="n">
         <v>0.0405679513184584</v>
@@ -2334,7 +2335,7 @@
         <v>0.0405679513184584</v>
       </c>
       <c r="U26" t="n">
-        <v>0.203334688897926</v>
+        <v>0.202922077922078</v>
       </c>
     </row>
     <row r="27">
@@ -2343,13 +2344,13 @@
       </c>
       <c r="B27"/>
       <c r="C27" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E27" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -2374,13 +2375,13 @@
       </c>
       <c r="B28"/>
       <c r="C28" t="n">
-        <v>0.285248573757131</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284668564457096</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="E28" t="n">
-        <v>0.284552845528455</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -2405,13 +2406,13 @@
       </c>
       <c r="B29"/>
       <c r="C29" t="n">
-        <v>0.366748166259169</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="D29" t="n">
-        <v>0.366002440016267</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="E29" t="n">
-        <v>0.365853658536585</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -2436,13 +2437,13 @@
       </c>
       <c r="B30"/>
       <c r="C30" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E30" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -2467,16 +2468,16 @@
       </c>
       <c r="B31"/>
       <c r="C31" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E31" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F31" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2500,13 +2501,13 @@
       </c>
       <c r="B32"/>
       <c r="C32" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E32" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -2531,13 +2532,13 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E33" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -2562,13 +2563,13 @@
       </c>
       <c r="B34"/>
       <c r="C34" t="n">
-        <v>0.0814995925020375</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -2593,16 +2594,16 @@
       </c>
       <c r="B35"/>
       <c r="C35" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E35" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F35" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2626,28 +2627,28 @@
       </c>
       <c r="B36"/>
       <c r="C36" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E36" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -2665,16 +2666,16 @@
       </c>
       <c r="B37"/>
       <c r="C37" t="n">
-        <v>0.162999185004075</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="D37" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="E37" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="F37" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2698,16 +2699,16 @@
       </c>
       <c r="B38"/>
       <c r="C38" t="n">
-        <v>0.0814995925020375</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2731,16 +2732,16 @@
       </c>
       <c r="B39"/>
       <c r="C39" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E39" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F39" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2764,16 +2765,16 @@
       </c>
       <c r="B40"/>
       <c r="C40" t="n">
-        <v>0.122249388753056</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="E40" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2797,16 +2798,16 @@
       </c>
       <c r="B41"/>
       <c r="C41" t="n">
-        <v>0.162999185004075</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="E41" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2830,16 +2831,16 @@
       </c>
       <c r="B42"/>
       <c r="C42" t="n">
-        <v>0.0814995925020375</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2863,16 +2864,16 @@
       </c>
       <c r="B43"/>
       <c r="C43" t="n">
-        <v>0.733496332518337</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="D43" t="n">
-        <v>0.732004880032534</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="E43" t="n">
-        <v>0.731707317073171</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="F43" t="n">
-        <v>0.731707317073171</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -2896,16 +2897,16 @@
       </c>
       <c r="B44"/>
       <c r="C44" t="n">
-        <v>0.488997555012225</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="D44" t="n">
-        <v>0.488003253355022</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="E44" t="n">
-        <v>0.48780487804878</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="F44" t="n">
-        <v>0.48780487804878</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2929,16 +2930,16 @@
       </c>
       <c r="B45"/>
       <c r="C45" t="n">
-        <v>0.122249388753056</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="E45" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="F45" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -2962,16 +2963,16 @@
       </c>
       <c r="B46"/>
       <c r="C46" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E46" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F46" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -2995,16 +2996,16 @@
       </c>
       <c r="B47"/>
       <c r="C47" t="n">
-        <v>0.162999185004075</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="D47" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="E47" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="F47" t="n">
-        <v>0.16260162601626</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -3028,16 +3029,16 @@
       </c>
       <c r="B48"/>
       <c r="C48" t="n">
-        <v>0.244498777506112</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="E48" t="n">
-        <v>0.24390243902439</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.24390243902439</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -3061,16 +3062,16 @@
       </c>
       <c r="B49"/>
       <c r="C49" t="n">
-        <v>0.32599837000815</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325335502236682</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="E49" t="n">
-        <v>0.32520325203252</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.32520325203252</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -3094,50 +3095,50 @@
       </c>
       <c r="B50"/>
       <c r="C50" t="n">
-        <v>0.122249388753056</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="E50" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="F50" t="n">
-        <v>0.121951219512195</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="J50" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="K50" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="L50" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="M50" t="n">
-        <v>0.288659793814433</v>
+        <v>0.284090909090909</v>
       </c>
       <c r="N50" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="O50" t="n">
-        <v>0.618556701030928</v>
+        <v>0.608766233766234</v>
       </c>
       <c r="P50" t="n">
-        <v>0.527597402597403</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.527597402597403</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S50" t="n">
         <v>0.0405679513184584</v>
@@ -3153,13 +3154,13 @@
       </c>
       <c r="B51"/>
       <c r="C51" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E51" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
@@ -3184,16 +3185,16 @@
       </c>
       <c r="B52"/>
       <c r="C52" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E52" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F52" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -3217,28 +3218,28 @@
       </c>
       <c r="B53"/>
       <c r="C53" t="n">
-        <v>0.0814995925020375</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0813008130081301</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M53"/>
       <c r="N53"/>
@@ -3256,16 +3257,16 @@
       </c>
       <c r="B54"/>
       <c r="C54" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E54" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3290,13 +3291,13 @@
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E55" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F55" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3321,13 +3322,13 @@
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E56" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F56" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3352,22 +3353,22 @@
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E57" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -3389,13 +3390,13 @@
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58" t="n">
-        <v>2.68401789345262</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="E58" t="n">
-        <v>2.68292682926829</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="F58" t="n">
-        <v>2.68292682926829</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -3420,10 +3421,10 @@
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E59" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3450,29 +3451,29 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F60" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
@@ -3489,13 +3490,13 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -3520,13 +3521,13 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F62" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
@@ -3551,46 +3552,46 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="n">
-        <v>4.59349593495935</v>
+        <v>4.5841784989858</v>
       </c>
       <c r="F63" t="n">
-        <v>5.60975609756098</v>
+        <v>5.59837728194726</v>
       </c>
       <c r="G63" t="n">
-        <v>11.7168429617575</v>
+        <v>11.683569979716</v>
       </c>
       <c r="H63" t="n">
-        <v>9.35339568930459</v>
+        <v>9.33062880324544</v>
       </c>
       <c r="I63" t="n">
-        <v>10.1667344448963</v>
+        <v>10.1419878296146</v>
       </c>
       <c r="J63" t="n">
-        <v>11.5759545085297</v>
+        <v>11.5618661257606</v>
       </c>
       <c r="K63" t="n">
-        <v>9.5450852965069</v>
+        <v>9.53346855983773</v>
       </c>
       <c r="L63" t="n">
-        <v>8.48903330625508</v>
+        <v>8.47870182555781</v>
       </c>
       <c r="M63" t="n">
-        <v>8.65979381443299</v>
+        <v>8.52272727272727</v>
       </c>
       <c r="N63" t="n">
-        <v>10.3092783505155</v>
+        <v>10.1461038961039</v>
       </c>
       <c r="O63" t="n">
-        <v>18.4742268041237</v>
+        <v>18.1818181818182</v>
       </c>
       <c r="P63" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="Q63" t="n">
-        <v>16.8831168831169</v>
+        <v>16.8762677484787</v>
       </c>
       <c r="R63" t="n">
-        <v>8.36038961038961</v>
+        <v>8.35699797160243</v>
       </c>
       <c r="S63" t="n">
         <v>8.96551724137931</v>
@@ -3599,7 +3600,7 @@
         <v>10.5882352941176</v>
       </c>
       <c r="U63" t="n">
-        <v>2.52135014233428</v>
+        <v>2.51623376623377</v>
       </c>
     </row>
     <row r="64">
@@ -3610,13 +3611,13 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
@@ -3642,13 +3643,13 @@
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -3673,13 +3674,13 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -3704,13 +3705,13 @@
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -3735,13 +3736,13 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -3766,13 +3767,13 @@
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -3781,13 +3782,13 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R69"/>
       <c r="S69"/>
@@ -3803,13 +3804,13 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>1.58536585365854</v>
+        <v>1.58215010141988</v>
       </c>
       <c r="G70" t="n">
-        <v>1.586655817738</v>
+        <v>1.58215010141988</v>
       </c>
       <c r="H70" t="n">
-        <v>1.58601057340382</v>
+        <v>1.58215010141988</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -3834,13 +3835,13 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -3865,13 +3866,13 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -3897,26 +3898,26 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O73"/>
       <c r="P73"/>
@@ -3925,7 +3926,7 @@
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
-        <v>2.23668157787719</v>
+        <v>2.23214285714286</v>
       </c>
     </row>
     <row r="74">
@@ -3938,25 +3939,25 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>0.813669650122051</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="H74" t="n">
-        <v>0.813338755591704</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="I74" t="n">
-        <v>0.813338755591704</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="n">
-        <v>0.783505154639175</v>
+        <v>0.771103896103896</v>
       </c>
       <c r="N74" t="n">
-        <v>0.783505154639175</v>
+        <v>0.771103896103896</v>
       </c>
       <c r="O74" t="n">
-        <v>0.783505154639175</v>
+        <v>0.771103896103896</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
@@ -3964,7 +3965,7 @@
       <c r="S74"/>
       <c r="T74"/>
       <c r="U74" t="n">
-        <v>8.21472143147621</v>
+        <v>8.19805194805195</v>
       </c>
     </row>
     <row r="75">
@@ -3977,32 +3978,32 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>0.772986167615948</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="H75" t="n">
-        <v>0.813338755591704</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="I75" t="n">
-        <v>0.813338755591704</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="P75" t="n">
-        <v>2.80032467532468</v>
+        <v>2.79918864097363</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.80032467532468</v>
+        <v>2.79918864097363</v>
       </c>
       <c r="R75" t="n">
-        <v>2.67857142857143</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="S75"/>
       <c r="T75"/>
@@ -4018,13 +4019,13 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -4049,37 +4050,37 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>1.87144019528072</v>
+        <v>1.86612576064909</v>
       </c>
       <c r="H77" t="n">
-        <v>1.9113460756405</v>
+        <v>1.90669371196755</v>
       </c>
       <c r="I77" t="n">
-        <v>3.21268808458723</v>
+        <v>3.20486815415821</v>
       </c>
       <c r="J77" t="n">
-        <v>3.45247766043867</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K77" t="n">
-        <v>3.61494719740049</v>
+        <v>3.6105476673428</v>
       </c>
       <c r="L77" t="n">
-        <v>2.35580828594638</v>
+        <v>2.35294117647059</v>
       </c>
       <c r="M77" t="n">
-        <v>3.50515463917526</v>
+        <v>3.44967532467532</v>
       </c>
       <c r="N77" t="n">
-        <v>1.85567010309278</v>
+        <v>1.8262987012987</v>
       </c>
       <c r="O77" t="n">
-        <v>4.32989690721649</v>
+        <v>4.26136363636364</v>
       </c>
       <c r="P77" t="n">
-        <v>2.67857142857143</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.67857142857143</v>
+        <v>2.67748478701826</v>
       </c>
       <c r="R77"/>
       <c r="S77"/>
@@ -4096,13 +4097,13 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>1.99349064279902</v>
+        <v>1.98782961460446</v>
       </c>
       <c r="H78" t="n">
-        <v>1.99267995119967</v>
+        <v>1.98782961460446</v>
       </c>
       <c r="I78" t="n">
-        <v>1.99267995119967</v>
+        <v>1.98782961460446</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -4127,13 +4128,13 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>0.081366965012205</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -4158,22 +4159,22 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>0.406834825061025</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="H80" t="n">
-        <v>0.406669377795852</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="I80" t="n">
-        <v>0.406669377795852</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="J80" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K80" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="L80" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -4196,16 +4197,16 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="I81" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="J81" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="K81" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -4229,13 +4230,13 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82" t="n">
-        <v>0.488003253355022</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="I82" t="n">
-        <v>0.488003253355022</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="J82" t="n">
-        <v>0.487408610885459</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -4260,13 +4261,13 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -4291,37 +4292,37 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I84" t="n">
-        <v>1.87067913786092</v>
+        <v>1.86612576064909</v>
       </c>
       <c r="J84" t="n">
-        <v>5.93013809910642</v>
+        <v>5.92292089249493</v>
       </c>
       <c r="K84" t="n">
-        <v>7.92038992688871</v>
+        <v>7.91075050709939</v>
       </c>
       <c r="L84" t="n">
-        <v>8.89520714865963</v>
+        <v>8.88438133874239</v>
       </c>
       <c r="M84" t="n">
-        <v>6.10309278350515</v>
+        <v>6.00649350649351</v>
       </c>
       <c r="N84" t="n">
-        <v>4.12371134020619</v>
+        <v>4.05844155844156</v>
       </c>
       <c r="O84" t="n">
-        <v>1.85567010309278</v>
+        <v>1.8262987012987</v>
       </c>
       <c r="P84" t="n">
-        <v>0.527597402597403</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.527597402597403</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="R84" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S84" t="n">
         <v>0.486815415821501</v>
@@ -4330,7 +4331,7 @@
         <v>0.486815415821501</v>
       </c>
       <c r="U84" t="n">
-        <v>0.610004066693778</v>
+        <v>0.608766233766234</v>
       </c>
     </row>
     <row r="85">
@@ -4345,22 +4346,22 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O85"/>
       <c r="P85"/>
@@ -4382,37 +4383,37 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>1.0980073200488</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="J86" t="n">
-        <v>1.50284321689683</v>
+        <v>1.50101419878296</v>
       </c>
       <c r="K86" t="n">
-        <v>1.50284321689683</v>
+        <v>1.50101419878296</v>
       </c>
       <c r="L86" t="n">
-        <v>0.974817221770918</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="M86" t="n">
-        <v>3.29896907216495</v>
+        <v>3.24675324675325</v>
       </c>
       <c r="N86" t="n">
-        <v>4.20618556701031</v>
+        <v>4.13961038961039</v>
       </c>
       <c r="O86" t="n">
-        <v>6.18556701030928</v>
+        <v>6.08766233766234</v>
       </c>
       <c r="P86" t="n">
-        <v>3.61201298701299</v>
+        <v>3.6105476673428</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.61201298701299</v>
+        <v>3.6105476673428</v>
       </c>
       <c r="R86"/>
       <c r="S86"/>
       <c r="T86"/>
       <c r="U86" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="87">
@@ -4427,37 +4428,37 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="J87" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="K87" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O87" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P87" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R87"/>
       <c r="S87"/>
       <c r="T87"/>
       <c r="U87" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243506493506494</v>
       </c>
     </row>
     <row r="88">
@@ -4472,34 +4473,34 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>0.203334688897926</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="J88" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="K88" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="L88" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="M88" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="N88" t="n">
-        <v>0.536082474226804</v>
+        <v>0.527597402597403</v>
       </c>
       <c r="O88" t="n">
-        <v>0.783505154639175</v>
+        <v>0.771103896103896</v>
       </c>
       <c r="P88" t="n">
-        <v>1.09577922077922</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.09577922077922</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="R88" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="S88" t="n">
         <v>1.01419878296146</v>
@@ -4508,7 +4509,7 @@
         <v>1.74442190669371</v>
       </c>
       <c r="U88" t="n">
-        <v>3.2940219601464</v>
+        <v>3.28733766233766</v>
       </c>
     </row>
     <row r="89">
@@ -4523,13 +4524,13 @@
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="J89" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K89" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -4554,13 +4555,13 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -4585,13 +4586,13 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>0.366002440016267</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="J91" t="n">
-        <v>0.365556458164094</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="K91" t="n">
-        <v>0.365556458164094</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -4617,25 +4618,25 @@
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="n">
-        <v>0.812347684809098</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="K92" t="n">
-        <v>0.812347684809098</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="L92" t="n">
-        <v>0.812347684809098</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R92" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S92"/>
       <c r="T92"/>
@@ -4654,13 +4655,13 @@
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K93" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="L93" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="M93"/>
       <c r="N93"/>
@@ -4685,16 +4686,16 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="K94" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="L94" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M94" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -4718,28 +4719,28 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="K95" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="L95" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="M95" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P95" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -4759,19 +4760,19 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K96" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="L96" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O96"/>
       <c r="P96"/>
@@ -4794,13 +4795,13 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M97"/>
       <c r="N97"/>
@@ -4825,13 +4826,13 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
@@ -4856,13 +4857,13 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M99"/>
       <c r="N99"/>
@@ -4887,13 +4888,13 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>0.365556458164094</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="K100" t="n">
-        <v>0.365556458164094</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="L100" t="n">
-        <v>0.365556458164094</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="M100"/>
       <c r="N100"/>
@@ -4918,13 +4919,13 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M101"/>
       <c r="N101"/>
@@ -4949,31 +4950,31 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>5.84890333062551</v>
+        <v>5.84178498985801</v>
       </c>
       <c r="K102" t="n">
-        <v>5.84890333062551</v>
+        <v>5.84178498985801</v>
       </c>
       <c r="L102" t="n">
-        <v>7.55483346872461</v>
+        <v>7.54563894523327</v>
       </c>
       <c r="M102" t="n">
-        <v>5.03092783505155</v>
+        <v>4.9512987012987</v>
       </c>
       <c r="N102" t="n">
-        <v>5.81443298969072</v>
+        <v>5.7224025974026</v>
       </c>
       <c r="O102" t="n">
-        <v>9.23711340206185</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="P102" t="n">
-        <v>11.4448051948052</v>
+        <v>11.4401622718053</v>
       </c>
       <c r="Q102" t="n">
-        <v>11.7288961038961</v>
+        <v>11.7241379310345</v>
       </c>
       <c r="R102" t="n">
-        <v>12.9058441558442</v>
+        <v>12.9006085192698</v>
       </c>
       <c r="S102" t="n">
         <v>11.9269776876268</v>
@@ -4982,7 +4983,7 @@
         <v>7.99188640973631</v>
       </c>
       <c r="U102" t="n">
-        <v>4.27002846685645</v>
+        <v>4.26136363636364</v>
       </c>
     </row>
     <row r="103">
@@ -4998,22 +4999,22 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P103"/>
       <c r="Q103"/>
@@ -5035,31 +5036,31 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M104" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="N104" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="O104" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P104" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R104" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S104" t="n">
         <v>0.0811359026369168</v>
@@ -5068,7 +5069,7 @@
         <v>0.0811359026369168</v>
       </c>
       <c r="U104" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="105">
@@ -5084,31 +5085,31 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P105" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R105" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S105" t="n">
         <v>0.243407707910751</v>
@@ -5117,7 +5118,7 @@
         <v>0.243407707910751</v>
       </c>
       <c r="U105" t="n">
-        <v>0.366002440016267</v>
+        <v>0.36525974025974</v>
       </c>
     </row>
     <row r="106">
@@ -5134,16 +5135,16 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106" t="n">
-        <v>3.93988627132413</v>
+        <v>3.93509127789047</v>
       </c>
       <c r="L106" t="n">
-        <v>3.93988627132413</v>
+        <v>3.93509127789047</v>
       </c>
       <c r="M106" t="n">
-        <v>4</v>
+        <v>3.93668831168831</v>
       </c>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>3.93668831168831</v>
       </c>
       <c r="O106"/>
       <c r="P106"/>
@@ -5168,13 +5169,13 @@
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="M107" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="N107" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="O107"/>
       <c r="P107"/>
@@ -5199,16 +5200,16 @@
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>0.487408610885459</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="M108" t="n">
-        <v>2.80412371134021</v>
+        <v>2.75974025974026</v>
       </c>
       <c r="N108" t="n">
-        <v>2.80412371134021</v>
+        <v>2.75974025974026</v>
       </c>
       <c r="O108" t="n">
-        <v>2.30927835051546</v>
+        <v>2.27272727272727</v>
       </c>
       <c r="P108"/>
       <c r="Q108"/>
@@ -5232,16 +5233,16 @@
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P109"/>
       <c r="Q109"/>
@@ -5265,13 +5266,13 @@
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O110"/>
       <c r="P110"/>
@@ -5296,13 +5297,13 @@
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O111"/>
       <c r="P111"/>
@@ -5327,13 +5328,13 @@
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O112"/>
       <c r="P112"/>
@@ -5358,16 +5359,16 @@
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P113"/>
       <c r="Q113"/>
@@ -5391,13 +5392,13 @@
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M114" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="N114" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="O114"/>
       <c r="P114"/>
@@ -5422,13 +5423,13 @@
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O115"/>
       <c r="P115"/>
@@ -5453,16 +5454,16 @@
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M116" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="N116" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="O116" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P116"/>
       <c r="Q116"/>
@@ -5486,22 +5487,22 @@
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>1.34037367993501</v>
+        <v>1.33874239350913</v>
       </c>
       <c r="M117" t="n">
-        <v>1.36082474226804</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="N117" t="n">
-        <v>1.36082474226804</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="O117" t="n">
-        <v>1.31958762886598</v>
+        <v>1.2987012987013</v>
       </c>
       <c r="P117" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="R117"/>
       <c r="S117"/>
@@ -5523,16 +5524,16 @@
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>0.446791226645004</v>
+        <v>0.446247464503043</v>
       </c>
       <c r="M118" t="n">
-        <v>0.45360824742268</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="N118" t="n">
-        <v>0.45360824742268</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="O118" t="n">
-        <v>0.45360824742268</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="P118"/>
       <c r="Q118"/>
@@ -5556,16 +5557,16 @@
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M119" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="N119" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="O119" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="P119"/>
       <c r="Q119"/>
@@ -5589,25 +5590,25 @@
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M120" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="N120" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P120" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R120" t="n">
-        <v>0.243506493506494</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="S120" t="n">
         <v>0.243407707910751</v>
@@ -5616,7 +5617,7 @@
         <v>0.243407707910751</v>
       </c>
       <c r="U120" t="n">
-        <v>0.284668564457096</v>
+        <v>0.284090909090909</v>
       </c>
     </row>
     <row r="121">
@@ -5634,13 +5635,13 @@
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O121"/>
       <c r="P121"/>
@@ -5665,13 +5666,13 @@
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O122"/>
       <c r="P122"/>
@@ -5680,7 +5681,7 @@
       <c r="S122"/>
       <c r="T122"/>
       <c r="U122" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="123">
@@ -5699,22 +5700,22 @@
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="N123" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="O123" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P123" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R123" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S123" t="n">
         <v>0.162271805273834</v>
@@ -5723,7 +5724,7 @@
         <v>0.162271805273834</v>
       </c>
       <c r="U123" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="124">
@@ -5742,13 +5743,13 @@
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124" t="n">
-        <v>6.55670103092783</v>
+        <v>6.45292207792208</v>
       </c>
       <c r="N124" t="n">
-        <v>6.55670103092783</v>
+        <v>6.45292207792208</v>
       </c>
       <c r="O124" t="n">
-        <v>4.32989690721649</v>
+        <v>4.26136363636364</v>
       </c>
       <c r="P124"/>
       <c r="Q124"/>
@@ -5773,13 +5774,13 @@
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P125"/>
       <c r="Q125"/>
@@ -5804,13 +5805,13 @@
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P126"/>
       <c r="Q126"/>
@@ -5822,7 +5823,7 @@
         <v>0.0405679513184584</v>
       </c>
       <c r="U126" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="127">
@@ -5841,22 +5842,22 @@
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127" t="n">
-        <v>0.824742268041237</v>
+        <v>0.811688311688312</v>
       </c>
       <c r="N127" t="n">
-        <v>0.824742268041237</v>
+        <v>0.811688311688312</v>
       </c>
       <c r="O127" t="n">
-        <v>0.824742268041237</v>
+        <v>0.811688311688312</v>
       </c>
       <c r="P127" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="R127" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="S127"/>
       <c r="T127"/>
@@ -5878,13 +5879,13 @@
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128" t="n">
-        <v>3.42268041237113</v>
+        <v>3.36850649350649</v>
       </c>
       <c r="N128" t="n">
-        <v>3.42268041237113</v>
+        <v>3.36850649350649</v>
       </c>
       <c r="O128" t="n">
-        <v>3.42268041237113</v>
+        <v>3.36850649350649</v>
       </c>
       <c r="P128"/>
       <c r="Q128"/>
@@ -5908,19 +5909,17 @@
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
-      <c r="M129"/>
+      <c r="M129" t="n">
+        <v>0.0405844155844156</v>
+      </c>
       <c r="N129" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0824742268041237</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0.0811688311688312</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0.0811688311688312</v>
-      </c>
+        <v>0.0405844155844156</v>
+      </c>
+      <c r="P129"/>
+      <c r="Q129"/>
       <c r="R129"/>
       <c r="S129"/>
       <c r="T129"/>
@@ -5943,16 +5942,16 @@
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P130" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R130"/>
       <c r="S130"/>
@@ -5975,15 +5974,17 @@
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
-      <c r="N131"/>
+      <c r="N131" t="n">
+        <v>0.0405844155844156</v>
+      </c>
       <c r="O131" t="n">
-        <v>0.206185567010309</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P131" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R131"/>
       <c r="S131"/>
@@ -6008,13 +6009,13 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="P132" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R132"/>
       <c r="S132"/>
@@ -6039,13 +6040,13 @@
       <c r="M133"/>
       <c r="N133"/>
       <c r="O133" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P133" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R133"/>
       <c r="S133"/>
@@ -6070,23 +6071,17 @@
       <c r="M134"/>
       <c r="N134"/>
       <c r="O134" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P134" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.0405844155844156</v>
-      </c>
-      <c r="R134" t="n">
-        <v>0.0405844155844156</v>
-      </c>
-      <c r="S134" t="n">
-        <v>0.0405679513184584</v>
-      </c>
-      <c r="T134" t="n">
-        <v>0.0405679513184584</v>
-      </c>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
       <c r="U134"/>
     </row>
     <row r="135">
@@ -6107,17 +6102,23 @@
       <c r="M135"/>
       <c r="N135"/>
       <c r="O135" t="n">
-        <v>0.206185567010309</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P135" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.202922077922078</v>
-      </c>
-      <c r="R135"/>
-      <c r="S135"/>
-      <c r="T135"/>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.0405679513184584</v>
+      </c>
       <c r="U135"/>
     </row>
     <row r="136">
@@ -6138,13 +6139,13 @@
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="P136" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R136"/>
       <c r="S136"/>
@@ -6169,13 +6170,13 @@
       <c r="M137"/>
       <c r="N137"/>
       <c r="O137" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P137" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R137"/>
       <c r="S137"/>
@@ -6200,13 +6201,13 @@
       <c r="M138"/>
       <c r="N138"/>
       <c r="O138" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P138" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R138"/>
       <c r="S138"/>
@@ -6230,19 +6231,17 @@
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
-      <c r="O139"/>
+      <c r="O139" t="n">
+        <v>0.0405844155844156</v>
+      </c>
       <c r="P139" t="n">
-        <v>0.730519480519481</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.730519480519481</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0.730519480519481</v>
-      </c>
-      <c r="S139" t="n">
-        <v>0.730223123732252</v>
-      </c>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="R139"/>
+      <c r="S139"/>
       <c r="T139"/>
       <c r="U139"/>
     </row>
@@ -6265,16 +6264,16 @@
       <c r="N140"/>
       <c r="O140"/>
       <c r="P140" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="R140" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="S140" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="T140"/>
       <c r="U140"/>
@@ -6298,15 +6297,17 @@
       <c r="N141"/>
       <c r="O141"/>
       <c r="P141" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R141" t="n">
-        <v>0.0405844155844156</v>
-      </c>
-      <c r="S141"/>
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.0811359026369168</v>
+      </c>
       <c r="T141"/>
       <c r="U141"/>
     </row>
@@ -6329,20 +6330,16 @@
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R142" t="n">
-        <v>0.0405844155844156</v>
-      </c>
-      <c r="S142" t="n">
-        <v>0.0405679513184584</v>
-      </c>
-      <c r="T142" t="n">
-        <v>0.0405679513184584</v>
-      </c>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="S142"/>
+      <c r="T142"/>
       <c r="U142"/>
     </row>
     <row r="143">
@@ -6364,19 +6361,19 @@
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143" t="n">
-        <v>1.09577922077922</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.09577922077922</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R143" t="n">
-        <v>1.09577922077922</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S143" t="n">
-        <v>1.09533468559838</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T143" t="n">
-        <v>1.09533468559838</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U143"/>
     </row>
@@ -6399,19 +6396,19 @@
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144" t="n">
-        <v>0.324675324675325</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.324675324675325</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="R144" t="n">
-        <v>0.324675324675325</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="S144" t="n">
-        <v>0.324543610547667</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="T144" t="n">
-        <v>0.324543610547667</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="U144"/>
     </row>
@@ -6434,19 +6431,19 @@
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145" t="n">
-        <v>1.46103896103896</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.46103896103896</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="R145" t="n">
-        <v>1.46103896103896</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="S145" t="n">
-        <v>1.4604462474645</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="T145" t="n">
-        <v>1.4604462474645</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="U145"/>
     </row>
@@ -6469,19 +6466,19 @@
       <c r="N146"/>
       <c r="O146"/>
       <c r="P146" t="n">
-        <v>0.852272727272727</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.933441558441558</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="R146" t="n">
-        <v>0.933441558441558</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="S146" t="n">
-        <v>0.933062880324544</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="T146" t="n">
-        <v>0.933062880324544</v>
+        <v>1.4604462474645</v>
       </c>
       <c r="U146"/>
     </row>
@@ -6504,19 +6501,19 @@
       <c r="N147"/>
       <c r="O147"/>
       <c r="P147" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="R147" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="S147" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="T147" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.933062880324544</v>
       </c>
       <c r="U147"/>
     </row>
@@ -6539,19 +6536,19 @@
       <c r="N148"/>
       <c r="O148"/>
       <c r="P148" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R148" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S148" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T148" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U148"/>
     </row>
@@ -6574,16 +6571,20 @@
       <c r="N149"/>
       <c r="O149"/>
       <c r="P149" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R149" t="n">
-        <v>0.0405844155844156</v>
-      </c>
-      <c r="S149"/>
-      <c r="T149"/>
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0.0811359026369168</v>
+      </c>
       <c r="U149"/>
     </row>
     <row r="150">
@@ -6605,23 +6606,17 @@
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150" t="n">
-        <v>0.324675324675325</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.324675324675325</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="R150" t="n">
-        <v>0.324675324675325</v>
-      </c>
-      <c r="S150" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="T150" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="U150" t="n">
-        <v>0.122000813338756</v>
-      </c>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -6642,17 +6637,23 @@
       <c r="N151"/>
       <c r="O151"/>
       <c r="P151" t="n">
-        <v>0.162337662337662</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.162337662337662</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="R151" t="n">
-        <v>0.162337662337662</v>
-      </c>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
+        <v>0.324543610547667</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0.121703853955375</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0.121703853955375</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0.121753246753247</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -6673,20 +6674,16 @@
       <c r="N152"/>
       <c r="O152"/>
       <c r="P152" t="n">
-        <v>0.811688311688312</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.811688311688312</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R152" t="n">
-        <v>0.811688311688312</v>
-      </c>
-      <c r="S152" t="n">
-        <v>0.811359026369168</v>
-      </c>
-      <c r="T152" t="n">
-        <v>0.811359026369168</v>
-      </c>
+        <v>0.162271805273834</v>
+      </c>
+      <c r="S152"/>
+      <c r="T152"/>
       <c r="U152"/>
     </row>
     <row r="153">
@@ -6708,23 +6705,21 @@
       <c r="N153"/>
       <c r="O153"/>
       <c r="P153" t="n">
-        <v>0.202922077922078</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.202922077922078</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="R153" t="n">
-        <v>0.202922077922078</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="S153" t="n">
-        <v>0.202839756592292</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="T153" t="n">
-        <v>0.202839756592292</v>
-      </c>
-      <c r="U153" t="n">
-        <v>0.203334688897926</v>
-      </c>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="U153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -6745,22 +6740,22 @@
       <c r="N154"/>
       <c r="O154"/>
       <c r="P154" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R154" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S154" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="T154" t="n">
-        <v>0.121703853955375</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="U154" t="n">
-        <v>0.122000813338756</v>
+        <v>0.202922077922078</v>
       </c>
     </row>
     <row r="155">
@@ -6781,18 +6776,24 @@
       <c r="M155"/>
       <c r="N155"/>
       <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
+      <c r="P155" t="n">
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.0405679513184584</v>
+      </c>
       <c r="R155" t="n">
-        <v>0.487012987012987</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S155" t="n">
-        <v>0.486815415821501</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T155" t="n">
-        <v>0.486815415821501</v>
-      </c>
-      <c r="U155"/>
+        <v>0.121703853955375</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0.121753246753247</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -6815,17 +6816,15 @@
       <c r="P156"/>
       <c r="Q156"/>
       <c r="R156" t="n">
-        <v>0.121753246753247</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="S156" t="n">
-        <v>0.121703853955375</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="T156" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="U156" t="n">
-        <v>0.0406669377795852</v>
-      </c>
+        <v>0.486815415821501</v>
+      </c>
+      <c r="U156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -6848,16 +6847,16 @@
       <c r="P157"/>
       <c r="Q157"/>
       <c r="R157" t="n">
-        <v>0.527597402597403</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="S157" t="n">
-        <v>1.09533468559838</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="T157" t="n">
-        <v>1.82555780933063</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="U157" t="n">
-        <v>3.66002440016267</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="158">
@@ -6881,16 +6880,16 @@
       <c r="P158"/>
       <c r="Q158"/>
       <c r="R158" t="n">
-        <v>0.405844155844156</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="S158" t="n">
-        <v>0.405679513184584</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="T158" t="n">
-        <v>0.405679513184584</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="U158" t="n">
-        <v>0.569337128914193</v>
+        <v>3.69318181818182</v>
       </c>
     </row>
     <row r="159">
@@ -6914,15 +6913,17 @@
       <c r="P159"/>
       <c r="Q159"/>
       <c r="R159" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="S159" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="T159" t="n">
-        <v>0.0405679513184584</v>
-      </c>
-      <c r="U159"/>
+        <v>0.405679513184584</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0.568181818181818</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -6945,13 +6946,13 @@
       <c r="P160"/>
       <c r="Q160"/>
       <c r="R160" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S160" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T160" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U160"/>
     </row>
@@ -6976,17 +6977,15 @@
       <c r="P161"/>
       <c r="Q161"/>
       <c r="R161" t="n">
-        <v>0.121753246753247</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S161" t="n">
-        <v>0.527383367139959</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="T161" t="n">
-        <v>0.811359026369168</v>
-      </c>
-      <c r="U161" t="n">
-        <v>0.772671817812119</v>
-      </c>
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="U161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -7009,15 +7008,17 @@
       <c r="P162"/>
       <c r="Q162"/>
       <c r="R162" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="S162" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="T162" t="n">
-        <v>0.0405679513184584</v>
-      </c>
-      <c r="U162"/>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0.771103896103896</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -7040,13 +7041,13 @@
       <c r="P163"/>
       <c r="Q163"/>
       <c r="R163" t="n">
-        <v>0.284090909090909</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S163" t="n">
-        <v>0.283975659229209</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T163" t="n">
-        <v>0.283975659229209</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U163"/>
     </row>
@@ -7071,13 +7072,13 @@
       <c r="P164"/>
       <c r="Q164"/>
       <c r="R164" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="S164" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="T164" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="U164"/>
     </row>
@@ -7102,7 +7103,7 @@
       <c r="P165"/>
       <c r="Q165"/>
       <c r="R165" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S165" t="n">
         <v>0.0405679513184584</v>
@@ -7133,7 +7134,7 @@
       <c r="P166"/>
       <c r="Q166"/>
       <c r="R166" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S166" t="n">
         <v>0.0405679513184584</v>
@@ -7164,7 +7165,7 @@
       <c r="P167"/>
       <c r="Q167"/>
       <c r="R167" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S167" t="n">
         <v>0.0405679513184584</v>
@@ -7195,7 +7196,7 @@
       <c r="P168"/>
       <c r="Q168"/>
       <c r="R168" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S168" t="n">
         <v>0.0405679513184584</v>
@@ -7226,7 +7227,7 @@
       <c r="P169"/>
       <c r="Q169"/>
       <c r="R169" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S169" t="n">
         <v>0.0405679513184584</v>
@@ -7257,13 +7258,13 @@
       <c r="P170"/>
       <c r="Q170"/>
       <c r="R170" t="n">
-        <v>0.771103896103896</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S170" t="n">
-        <v>0.77079107505071</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T170" t="n">
-        <v>0.77079107505071</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U170"/>
     </row>
@@ -7288,13 +7289,13 @@
       <c r="P171"/>
       <c r="Q171"/>
       <c r="R171" t="n">
-        <v>0.121753246753247</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="S171" t="n">
-        <v>0.121703853955375</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="T171" t="n">
-        <v>0.121703853955375</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="U171"/>
     </row>
@@ -7319,13 +7320,13 @@
       <c r="P172"/>
       <c r="Q172"/>
       <c r="R172" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="S172" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="T172" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="U172"/>
     </row>
@@ -7350,13 +7351,13 @@
       <c r="P173"/>
       <c r="Q173"/>
       <c r="R173" t="n">
-        <v>0.284090909090909</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S173" t="n">
-        <v>0.283975659229209</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T173" t="n">
-        <v>0.283975659229209</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="U173"/>
     </row>
@@ -7381,13 +7382,13 @@
       <c r="P174"/>
       <c r="Q174"/>
       <c r="R174" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="S174" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="T174" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="U174"/>
     </row>
@@ -7411,16 +7412,16 @@
       <c r="O175"/>
       <c r="P175"/>
       <c r="Q175"/>
-      <c r="R175"/>
+      <c r="R175" t="n">
+        <v>0.0811359026369168</v>
+      </c>
       <c r="S175" t="n">
-        <v>0.486815415821501</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="T175" t="n">
-        <v>0.486815415821501</v>
-      </c>
-      <c r="U175" t="n">
-        <v>0.488003253355022</v>
-      </c>
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="U175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -7444,13 +7445,13 @@
       <c r="Q176"/>
       <c r="R176"/>
       <c r="S176" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="T176" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="U176" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.487012987012987</v>
       </c>
     </row>
     <row r="177">
@@ -7475,12 +7476,14 @@
       <c r="Q177"/>
       <c r="R177"/>
       <c r="S177" t="n">
-        <v>0.121703853955375</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T177" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="U177"/>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0.0405844155844156</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -7504,14 +7507,12 @@
       <c r="Q178"/>
       <c r="R178"/>
       <c r="S178" t="n">
-        <v>0.162271805273834</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="T178" t="n">
-        <v>0.162271805273834</v>
-      </c>
-      <c r="U178" t="n">
-        <v>0.162667751118341</v>
-      </c>
+        <v>0.121703853955375</v>
+      </c>
+      <c r="U178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -7534,12 +7535,14 @@
       <c r="P179"/>
       <c r="Q179"/>
       <c r="R179"/>
-      <c r="S179"/>
+      <c r="S179" t="n">
+        <v>0.162271805273834</v>
+      </c>
       <c r="T179" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="U179" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="180">
@@ -7564,9 +7567,11 @@
       <c r="Q180"/>
       <c r="R180"/>
       <c r="S180"/>
-      <c r="T180"/>
+      <c r="T180" t="n">
+        <v>0.0405679513184584</v>
+      </c>
       <c r="U180" t="n">
-        <v>0.528670191134608</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="181">
@@ -7593,7 +7598,7 @@
       <c r="S181"/>
       <c r="T181"/>
       <c r="U181" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.527597402597403</v>
       </c>
     </row>
     <row r="182">
@@ -7620,7 +7625,7 @@
       <c r="S182"/>
       <c r="T182"/>
       <c r="U182" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="183">
@@ -7647,7 +7652,7 @@
       <c r="S183"/>
       <c r="T183"/>
       <c r="U183" t="n">
-        <v>0.122000813338756</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="184">
@@ -7674,7 +7679,7 @@
       <c r="S184"/>
       <c r="T184"/>
       <c r="U184" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121753246753247</v>
       </c>
     </row>
     <row r="185">
@@ -7701,7 +7706,7 @@
       <c r="S185"/>
       <c r="T185"/>
       <c r="U185" t="n">
-        <v>1.22000813338756</v>
+        <v>0.121753246753247</v>
       </c>
     </row>
     <row r="186">
@@ -7728,7 +7733,7 @@
       <c r="S186"/>
       <c r="T186"/>
       <c r="U186" t="n">
-        <v>1.99267995119967</v>
+        <v>1.21753246753247</v>
       </c>
     </row>
     <row r="187">
@@ -7755,7 +7760,7 @@
       <c r="S187"/>
       <c r="T187"/>
       <c r="U187" t="n">
-        <v>0.0406669377795852</v>
+        <v>1.98863636363636</v>
       </c>
     </row>
     <row r="188">
@@ -7782,7 +7787,7 @@
       <c r="S188"/>
       <c r="T188"/>
       <c r="U188" t="n">
-        <v>0.203334688897926</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="189">
@@ -7809,7 +7814,7 @@
       <c r="S189"/>
       <c r="T189"/>
       <c r="U189" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.202922077922078</v>
       </c>
     </row>
     <row r="190">
@@ -7836,7 +7841,7 @@
       <c r="S190"/>
       <c r="T190"/>
       <c r="U190" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="191">
@@ -7863,7 +7868,7 @@
       <c r="S191"/>
       <c r="T191"/>
       <c r="U191" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="192">
@@ -7890,7 +7895,7 @@
       <c r="S192"/>
       <c r="T192"/>
       <c r="U192" t="n">
-        <v>0.122000813338756</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="193">
@@ -7917,7 +7922,7 @@
       <c r="S193"/>
       <c r="T193"/>
       <c r="U193" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.121753246753247</v>
       </c>
     </row>
     <row r="194">
@@ -7944,7 +7949,7 @@
       <c r="S194"/>
       <c r="T194"/>
       <c r="U194" t="n">
-        <v>0.122000813338756</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="195">
@@ -7971,7 +7976,7 @@
       <c r="S195"/>
       <c r="T195"/>
       <c r="U195" t="n">
-        <v>0.162667751118341</v>
+        <v>0.121753246753247</v>
       </c>
     </row>
     <row r="196">
@@ -7998,7 +8003,7 @@
       <c r="S196"/>
       <c r="T196"/>
       <c r="U196" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="197">
@@ -8025,7 +8030,7 @@
       <c r="S197"/>
       <c r="T197"/>
       <c r="U197" t="n">
-        <v>0.162667751118341</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="198">
@@ -8052,7 +8057,7 @@
       <c r="S198"/>
       <c r="T198"/>
       <c r="U198" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="199">
@@ -8079,7 +8084,7 @@
       <c r="S199"/>
       <c r="T199"/>
       <c r="U199" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="200">
@@ -8106,7 +8111,7 @@
       <c r="S200"/>
       <c r="T200"/>
       <c r="U200" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="201">
@@ -8133,7 +8138,7 @@
       <c r="S201"/>
       <c r="T201"/>
       <c r="U201" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="202">
@@ -8160,7 +8165,7 @@
       <c r="S202"/>
       <c r="T202"/>
       <c r="U202" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="203">
@@ -8187,7 +8192,7 @@
       <c r="S203"/>
       <c r="T203"/>
       <c r="U203" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="204">
@@ -8214,7 +8219,7 @@
       <c r="S204"/>
       <c r="T204"/>
       <c r="U204" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="205">
@@ -8241,7 +8246,7 @@
       <c r="S205"/>
       <c r="T205"/>
       <c r="U205" t="n">
-        <v>0.122000813338756</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="206">
@@ -8268,7 +8273,7 @@
       <c r="S206"/>
       <c r="T206"/>
       <c r="U206" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.121753246753247</v>
       </c>
     </row>
     <row r="207">
@@ -8295,7 +8300,7 @@
       <c r="S207"/>
       <c r="T207"/>
       <c r="U207" t="n">
-        <v>1.05734038226922</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="208">
@@ -8322,7 +8327,7 @@
       <c r="S208"/>
       <c r="T208"/>
       <c r="U208" t="n">
-        <v>6.14070760471736</v>
+        <v>1.05519480519481</v>
       </c>
     </row>
     <row r="209">
@@ -8349,7 +8354,7 @@
       <c r="S209"/>
       <c r="T209"/>
       <c r="U209" t="n">
-        <v>0.0406669377795852</v>
+        <v>6.12824675324675</v>
       </c>
     </row>
     <row r="210">
@@ -8376,7 +8381,34 @@
       <c r="S210"/>
       <c r="T210"/>
       <c r="U210" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0405844155844156</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211" t="n">
+        <v>0.0811688311688312</v>
       </c>
     </row>
   </sheetData>
@@ -8395,7 +8427,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8463,24 +8495,24 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -8500,10 +8532,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -8511,26 +8543,26 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R3" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S3" t="n">
         <v>0.567951318458418</v>
@@ -8539,7 +8571,7 @@
         <v>0.649087221095335</v>
       </c>
       <c r="U3" t="n">
-        <v>1.17934119560797</v>
+        <v>1.17694805194805</v>
       </c>
     </row>
     <row r="4">
@@ -8547,64 +8579,64 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2706889523033</v>
+        <v>12.2515212981744</v>
       </c>
       <c r="C4" t="n">
-        <v>14.5476772616137</v>
+        <v>14.4827586206897</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0801138674258</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="E4" t="n">
-        <v>17.6422764227642</v>
+        <v>17.606490872211</v>
       </c>
       <c r="F4" t="n">
-        <v>19.1463414634146</v>
+        <v>19.1075050709939</v>
       </c>
       <c r="G4" t="n">
-        <v>22.9048006509357</v>
+        <v>22.8397565922921</v>
       </c>
       <c r="H4" t="n">
-        <v>22.5701504676698</v>
+        <v>22.5152129817444</v>
       </c>
       <c r="I4" t="n">
-        <v>23.5054900366002</v>
+        <v>23.448275862069</v>
       </c>
       <c r="J4" t="n">
-        <v>20.4305442729488</v>
+        <v>20.4056795131846</v>
       </c>
       <c r="K4" t="n">
-        <v>19.5369618196588</v>
+        <v>19.5131845841785</v>
       </c>
       <c r="L4" t="n">
-        <v>19.4557270511779</v>
+        <v>19.4320486815416</v>
       </c>
       <c r="M4" t="n">
-        <v>27.7938144329897</v>
+        <v>27.4756493506494</v>
       </c>
       <c r="N4" t="n">
-        <v>28.7835051546392</v>
+        <v>28.4496753246753</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>23.7418831168831</v>
       </c>
       <c r="P4" t="n">
-        <v>21.6314935064935</v>
+        <v>21.6227180527383</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.4285714285714</v>
+        <v>21.419878296146</v>
       </c>
       <c r="R4" t="n">
-        <v>20.4951298701299</v>
+        <v>20.4868154158215</v>
       </c>
       <c r="S4" t="n">
-        <v>21.6632860040568</v>
+        <v>21.6227180527383</v>
       </c>
       <c r="T4" t="n">
-        <v>24.3813387423935</v>
+        <v>24.3407707910751</v>
       </c>
       <c r="U4" t="n">
-        <v>24.1968279788532</v>
+        <v>24.1883116883117</v>
       </c>
     </row>
     <row r="5">
@@ -8612,16 +8644,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E5" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8645,7 +8677,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -8672,10 +8704,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -8690,13 +8722,13 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R7" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S7" t="n">
         <v>0.162271805273834</v>
@@ -8709,7 +8741,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>0.040766408479413</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -8736,55 +8768,55 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0476966979209</v>
+        <v>10.9939148073022</v>
       </c>
       <c r="C9" t="n">
-        <v>9.65770171149144</v>
+        <v>9.61460446247465</v>
       </c>
       <c r="D9" t="n">
-        <v>12.3627490849939</v>
+        <v>12.3326572008114</v>
       </c>
       <c r="E9" t="n">
-        <v>13.3739837398374</v>
+        <v>13.3468559837728</v>
       </c>
       <c r="F9" t="n">
-        <v>13.8211382113821</v>
+        <v>13.7931034482759</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5646867371847</v>
+        <v>14.5233265720081</v>
       </c>
       <c r="H9" t="n">
-        <v>16.1854412362749</v>
+        <v>16.1460446247465</v>
       </c>
       <c r="I9" t="n">
-        <v>16.5921106140708</v>
+        <v>16.551724137931</v>
       </c>
       <c r="J9" t="n">
-        <v>14.7441104792851</v>
+        <v>14.7261663286004</v>
       </c>
       <c r="K9" t="n">
-        <v>12.7132412672624</v>
+        <v>12.6977687626775</v>
       </c>
       <c r="L9" t="n">
-        <v>11.4134849715678</v>
+        <v>11.3995943204868</v>
       </c>
       <c r="M9" t="n">
-        <v>8.3298969072165</v>
+        <v>8.36038961038961</v>
       </c>
       <c r="N9" t="n">
-        <v>7.29896907216495</v>
+        <v>7.38636363636364</v>
       </c>
       <c r="O9" t="n">
-        <v>9.27835051546392</v>
+        <v>9.33441558441558</v>
       </c>
       <c r="P9" t="n">
-        <v>8.27922077922078</v>
+        <v>8.27586206896552</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.23863636363636</v>
+        <v>8.23529411764706</v>
       </c>
       <c r="R9" t="n">
-        <v>8.31980519480519</v>
+        <v>8.31643002028398</v>
       </c>
       <c r="S9" t="n">
         <v>8.80324543610548</v>
@@ -8793,7 +8825,7 @@
         <v>7.38336713995943</v>
       </c>
       <c r="U9" t="n">
-        <v>4.14802765351769</v>
+        <v>4.13961038961039</v>
       </c>
     </row>
     <row r="10">
@@ -8801,55 +8833,55 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>56.5022421524664</v>
+        <v>56.2677484787018</v>
       </c>
       <c r="C10" t="n">
-        <v>55.7864710676447</v>
+        <v>55.578093306288</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5323302155348</v>
+        <v>49.4523326572008</v>
       </c>
       <c r="E10" t="n">
-        <v>47.6016260162602</v>
+        <v>47.5050709939148</v>
       </c>
       <c r="F10" t="n">
-        <v>45.2845528455285</v>
+        <v>45.1926977687627</v>
       </c>
       <c r="G10" t="n">
-        <v>41.4971521562246</v>
+        <v>41.3793103448276</v>
       </c>
       <c r="H10" t="n">
-        <v>40.3822692151281</v>
+        <v>40.2839756592292</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9995933306222</v>
+        <v>38.9046653144016</v>
       </c>
       <c r="J10" t="n">
-        <v>43.4199837530463</v>
+        <v>43.3671399594321</v>
       </c>
       <c r="K10" t="n">
-        <v>46.1819658813972</v>
+        <v>46.1257606490872</v>
       </c>
       <c r="L10" t="n">
-        <v>46.872461413485</v>
+        <v>46.815415821501</v>
       </c>
       <c r="M10" t="n">
-        <v>41.4432989690722</v>
+        <v>41.3555194805195</v>
       </c>
       <c r="N10" t="n">
-        <v>41.1958762886598</v>
+        <v>41.0714285714286</v>
       </c>
       <c r="O10" t="n">
-        <v>43.0103092783505</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="P10" t="n">
-        <v>42.3295454545455</v>
+        <v>42.3123732251521</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.5324675324675</v>
+        <v>42.5152129817444</v>
       </c>
       <c r="R10" t="n">
-        <v>39.5698051948052</v>
+        <v>39.553752535497</v>
       </c>
       <c r="S10" t="n">
         <v>35.8620689655172</v>
@@ -8858,7 +8890,7 @@
         <v>33.7931034482759</v>
       </c>
       <c r="U10" t="n">
-        <v>23.7494916632778</v>
+        <v>23.7418831168831</v>
       </c>
     </row>
     <row r="11">
@@ -8866,55 +8898,55 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>1.14145943742356</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.97799511002445</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="D11" t="n">
-        <v>1.22000813338756</v>
+        <v>1.21703853955375</v>
       </c>
       <c r="E11" t="n">
-        <v>1.34146341463415</v>
+        <v>1.33874239350913</v>
       </c>
       <c r="F11" t="n">
-        <v>1.42276422764228</v>
+        <v>1.41987829614604</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01708706265256</v>
+        <v>1.01419878296146</v>
       </c>
       <c r="H11" t="n">
-        <v>0.976006506710045</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.813338755591704</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="J11" t="n">
-        <v>1.17790414297319</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="K11" t="n">
-        <v>1.2591389114541</v>
+        <v>1.25760649087221</v>
       </c>
       <c r="L11" t="n">
-        <v>1.54346060113729</v>
+        <v>1.54158215010142</v>
       </c>
       <c r="M11" t="n">
-        <v>1.60824742268041</v>
+        <v>1.58279220779221</v>
       </c>
       <c r="N11" t="n">
-        <v>1.81443298969072</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="O11" t="n">
-        <v>1.93814432989691</v>
+        <v>1.90746753246753</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75974025974026</v>
+        <v>2.75862068965517</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.75974025974026</v>
+        <v>2.75862068965517</v>
       </c>
       <c r="R11" t="n">
-        <v>2.27272727272727</v>
+        <v>2.27180527383367</v>
       </c>
       <c r="S11" t="n">
         <v>2.83975659229209</v>
@@ -8923,7 +8955,7 @@
         <v>2.67748478701826</v>
       </c>
       <c r="U11" t="n">
-        <v>8.21472143147621</v>
+        <v>8.19805194805195</v>
       </c>
     </row>
     <row r="12">
@@ -8931,55 +8963,55 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>0.366897676314717</v>
+        <v>0.365111561866126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.774246128769356</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0980073200488</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="E12" t="n">
-        <v>1.13821138211382</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="F12" t="n">
-        <v>1.42276422764228</v>
+        <v>1.41987829614604</v>
       </c>
       <c r="G12" t="n">
-        <v>1.09845402766477</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17934119560797</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="I12" t="n">
-        <v>1.13867425782839</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05605199025183</v>
+        <v>1.05476673427992</v>
       </c>
       <c r="K12" t="n">
-        <v>1.21852152721365</v>
+        <v>1.21703853955375</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42160844841592</v>
+        <v>1.41987829614604</v>
       </c>
       <c r="M12" t="n">
-        <v>1.64948453608247</v>
+        <v>1.62337662337662</v>
       </c>
       <c r="N12" t="n">
-        <v>1.52577319587629</v>
+        <v>1.50162337662338</v>
       </c>
       <c r="O12" t="n">
-        <v>2.68041237113402</v>
+        <v>2.63798701298701</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88149350649351</v>
+        <v>2.88032454361055</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.88149350649351</v>
+        <v>2.88032454361055</v>
       </c>
       <c r="R12" t="n">
-        <v>3.69318181818182</v>
+        <v>3.69168356997972</v>
       </c>
       <c r="S12" t="n">
         <v>4.01622718052738</v>
@@ -8988,7 +9020,7 @@
         <v>4.21906693711968</v>
       </c>
       <c r="U12" t="n">
-        <v>4.3920292801952</v>
+        <v>4.38311688311688</v>
       </c>
     </row>
     <row r="13">
@@ -8996,125 +9028,123 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6110884631064</v>
+        <v>17.606490872211</v>
       </c>
       <c r="C13" t="n">
-        <v>16.9519152404238</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="D13" t="n">
-        <v>16.9174461163074</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="E13" t="n">
-        <v>16.9105691056911</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="F13" t="n">
-        <v>16.9105691056911</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="G13" t="n">
-        <v>16.9650122050448</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="H13" t="n">
-        <v>16.958113054087</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="I13" t="n">
-        <v>16.958113054087</v>
+        <v>17.1602434077079</v>
       </c>
       <c r="J13" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="K13" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="L13" t="n">
-        <v>16.9374492282697</v>
+        <v>17.0385395537525</v>
       </c>
       <c r="M13" t="n">
-        <v>17.1958762886598</v>
+        <v>17.6136363636364</v>
       </c>
       <c r="N13" t="n">
-        <v>17.2371134020619</v>
+        <v>17.6542207792208</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2371134020619</v>
+        <v>17.6542207792208</v>
       </c>
       <c r="P13" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="R13" t="n">
-        <v>16.9642857142857</v>
+        <v>16.9979716024341</v>
       </c>
       <c r="S13" t="n">
-        <v>16.9168356997972</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="T13" t="n">
-        <v>16.9168356997972</v>
+        <v>16.9574036511156</v>
       </c>
       <c r="U13" t="n">
-        <v>17.0394469296462</v>
+        <v>17.0454545454545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="n">
-        <v>0.815328169588259</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="C14" t="n">
-        <v>0.814995925020375</v>
+        <v>1.13590263691684</v>
       </c>
       <c r="D14" t="n">
-        <v>0.732004880032534</v>
+        <v>0.811359026369168</v>
       </c>
       <c r="E14" t="n">
-        <v>0.691056910569106</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.691056910569106</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.610252237591538</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="H14" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.528670191134608</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="J14" t="n">
-        <v>0.487408610885459</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="K14" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="L14" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="M14" t="n">
-        <v>0.288659793814433</v>
+        <v>0.284090909090909</v>
       </c>
       <c r="N14" t="n">
-        <v>0.247422680412371</v>
+        <v>0.243506493506494</v>
       </c>
       <c r="O14" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="P14" t="n">
-        <v>0.121753246753247</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.121753246753247</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S14" t="n">
         <v>0.0405679513184584</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
+      <c r="T14"/>
       <c r="U14" t="n">
         <v>0</v>
       </c>
@@ -9125,52 +9155,52 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>0.244498777506112</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.650671004473363</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="E15" t="n">
-        <v>0.853658536585366</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="F15" t="n">
-        <v>0.894308943089431</v>
+        <v>0.892494929006085</v>
       </c>
       <c r="G15" t="n">
-        <v>0.65093572009764</v>
+        <v>0.649087221095335</v>
       </c>
       <c r="H15" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="I15" t="n">
-        <v>0.569337128914193</v>
+        <v>0.567951318458418</v>
       </c>
       <c r="J15" t="n">
-        <v>0.771730300568643</v>
+        <v>0.77079107505071</v>
       </c>
       <c r="K15" t="n">
-        <v>0.852965069049553</v>
+        <v>0.851926977687627</v>
       </c>
       <c r="L15" t="n">
-        <v>1.09666937449228</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="M15" t="n">
-        <v>0.65979381443299</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="N15" t="n">
-        <v>0.65979381443299</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="O15" t="n">
-        <v>0.206185567010309</v>
+        <v>0.202922077922078</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8262987012987</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8262987012987</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="R15" t="n">
-        <v>3.36850649350649</v>
+        <v>3.36713995943205</v>
       </c>
       <c r="S15" t="n">
         <v>3.40770791075051</v>
@@ -9179,7 +9209,7 @@
         <v>3.20486815415821</v>
       </c>
       <c r="U15" t="n">
-        <v>3.09068727124848</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="16">
@@ -9188,13 +9218,13 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E16" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -9219,19 +9249,19 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
-        <v>0.0407497962510187</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="E17" t="n">
-        <v>0.203252032520325</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.203252032520325</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -9244,7 +9274,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S17" t="n">
         <v>0.162271805273834</v>
@@ -9261,13 +9291,13 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E18" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F18" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -9292,22 +9322,22 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E19" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F19" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -9329,10 +9359,10 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="E20" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -9359,13 +9389,13 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -9391,13 +9421,13 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -9422,13 +9452,13 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>0.040650406504065</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -9454,13 +9484,13 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>0.0406834825061025</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -9485,22 +9515,22 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>0.406834825061025</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="H25" t="n">
-        <v>0.406669377795852</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="I25" t="n">
-        <v>0.406669377795852</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="J25" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K25" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="L25" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -9524,37 +9554,37 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="n">
-        <v>0.122000813338756</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="J26" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="K26" t="n">
-        <v>0.121852152721365</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O26" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P26" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="n">
-        <v>0.244001626677511</v>
+        <v>0.243506493506494</v>
       </c>
     </row>
     <row r="27">
@@ -9569,34 +9599,34 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.203334688897926</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="J27" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="K27" t="n">
-        <v>0.324939073923639</v>
+        <v>0.324543610547667</v>
       </c>
       <c r="L27" t="n">
-        <v>0.284321689683184</v>
+        <v>0.283975659229209</v>
       </c>
       <c r="M27" t="n">
-        <v>0.329896907216495</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="N27" t="n">
-        <v>0.536082474226804</v>
+        <v>0.527597402597403</v>
       </c>
       <c r="O27" t="n">
-        <v>0.783505154639175</v>
+        <v>0.771103896103896</v>
       </c>
       <c r="P27" t="n">
-        <v>1.09577922077922</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.09577922077922</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2987012987013</v>
+        <v>1.29817444219067</v>
       </c>
       <c r="S27" t="n">
         <v>1.01419878296146</v>
@@ -9605,7 +9635,7 @@
         <v>1.74442190669371</v>
       </c>
       <c r="U27" t="n">
-        <v>3.37535583570557</v>
+        <v>3.36850649350649</v>
       </c>
     </row>
     <row r="28">
@@ -9621,19 +9651,19 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="n">
-        <v>0.16246953696182</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="K28" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="L28" t="n">
-        <v>0.203086921202275</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -9656,13 +9686,13 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -9687,31 +9717,31 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M30" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="N30" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="O30" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P30" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="R30" t="n">
-        <v>0.162337662337662</v>
+        <v>0.162271805273834</v>
       </c>
       <c r="S30" t="n">
         <v>0.0811359026369168</v>
@@ -9720,7 +9750,7 @@
         <v>0.0811359026369168</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="31">
@@ -9736,31 +9766,31 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0406173842404549</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P31" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R31" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S31" t="n">
         <v>0.243407707910751</v>
@@ -9769,7 +9799,7 @@
         <v>0.243407707910751</v>
       </c>
       <c r="U31" t="n">
-        <v>0.366002440016267</v>
+        <v>0.36525974025974</v>
       </c>
     </row>
     <row r="32">
@@ -9787,25 +9817,25 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>0.0812347684809098</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="M32" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="N32" t="n">
-        <v>0.123711340206186</v>
+        <v>0.121753246753247</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="P32" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.202922077922078</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R32" t="n">
-        <v>0.243506493506494</v>
+        <v>0.243407707910751</v>
       </c>
       <c r="S32" t="n">
         <v>0.243407707910751</v>
@@ -9814,7 +9844,7 @@
         <v>0.243407707910751</v>
       </c>
       <c r="U32" t="n">
-        <v>0.284668564457096</v>
+        <v>0.284090909090909</v>
       </c>
     </row>
     <row r="33">
@@ -9833,22 +9863,22 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="N33" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="O33" t="n">
-        <v>0.164948453608247</v>
+        <v>0.162337662337662</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S33" t="n">
         <v>0.162271805273834</v>
@@ -9857,7 +9887,7 @@
         <v>0.162271805273834</v>
       </c>
       <c r="U33" t="n">
-        <v>0.162667751118341</v>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="34">
@@ -9876,13 +9906,13 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0405844155844156</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
@@ -9893,7 +9923,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -9906,17 +9936,17 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="M35" t="n">
+        <v>0.0405844155844156</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0405844155844156</v>
+      </c>
       <c r="O35" t="n">
-        <v>0.0412371134020619</v>
-      </c>
-      <c r="P35" t="n">
         <v>0.0405844155844156</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0.0405844155844156</v>
-      </c>
+      <c r="P35"/>
+      <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -9924,7 +9954,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -9939,19 +9969,17 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36"/>
+      <c r="O36" t="n">
+        <v>0.0405844155844156</v>
+      </c>
       <c r="P36" t="n">
-        <v>0.730519480519481</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.730519480519481</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.730519480519481</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.730223123732252</v>
-      </c>
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
     </row>
@@ -9974,23 +10002,23 @@
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0811688311688312</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0811359026369168</v>
+        <v>0.730223123732252</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -10007,23 +10035,19 @@
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="R38" t="n">
-        <v>0.202922077922078</v>
+        <v>0.0811359026369168</v>
       </c>
       <c r="S38" t="n">
-        <v>0.202839756592292</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.202839756592292</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.203334688897926</v>
-      </c>
+        <v>0.0811359026369168</v>
+      </c>
+      <c r="T38"/>
+      <c r="U38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -10044,22 +10068,22 @@
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0405844155844156</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="T39" t="n">
-        <v>0.121703853955375</v>
+        <v>0.202839756592292</v>
       </c>
       <c r="U39" t="n">
-        <v>0.122000813338756</v>
+        <v>0.202922077922078</v>
       </c>
     </row>
     <row r="40">
@@ -10080,18 +10104,24 @@
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="P40" t="n">
+        <v>0.0405679513184584</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0405679513184584</v>
+      </c>
       <c r="R40" t="n">
-        <v>0.487012987012987</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="S40" t="n">
-        <v>0.486815415821501</v>
+        <v>0.0405679513184584</v>
       </c>
       <c r="T40" t="n">
-        <v>0.486815415821501</v>
-      </c>
-      <c r="U40"/>
+        <v>0.121703853955375</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.121753246753247</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -10114,17 +10144,15 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="n">
-        <v>0.121753246753247</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="S41" t="n">
-        <v>0.121703853955375</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="T41" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.0406669377795852</v>
-      </c>
+        <v>0.486815415821501</v>
+      </c>
+      <c r="U41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -10147,16 +10175,16 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="n">
-        <v>0.527597402597403</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="S42" t="n">
-        <v>1.09533468559838</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82555780933063</v>
+        <v>0.121703853955375</v>
       </c>
       <c r="U42" t="n">
-        <v>4.88003253355022</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="43">
@@ -10180,21 +10208,21 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>0.405844155844156</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="S43" t="n">
-        <v>0.405679513184584</v>
+        <v>1.09533468559838</v>
       </c>
       <c r="T43" t="n">
-        <v>0.405679513184584</v>
+        <v>1.82555780933063</v>
       </c>
       <c r="U43" t="n">
-        <v>0.569337128914193</v>
+        <v>4.91071428571429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -10213,21 +10241,21 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="n">
-        <v>0.121753246753247</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="S44" t="n">
-        <v>0.527383367139959</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="T44" t="n">
-        <v>0.811359026369168</v>
+        <v>0.405679513184584</v>
       </c>
       <c r="U44" t="n">
-        <v>0.772671817812119</v>
+        <v>0.568181818181818</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -10245,18 +10273,22 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>0.121703853955375</v>
+      </c>
       <c r="S45" t="n">
-        <v>0.121703853955375</v>
+        <v>0.527383367139959</v>
       </c>
       <c r="T45" t="n">
-        <v>0.121703853955375</v>
-      </c>
-      <c r="U45"/>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.771103896103896</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -10275,13 +10307,13 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
-      <c r="S46"/>
+      <c r="S46" t="n">
+        <v>0.121703853955375</v>
+      </c>
       <c r="T46" t="n">
-        <v>0.0405679513184584</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0.0406669377795852</v>
-      </c>
+        <v>0.121703853955375</v>
+      </c>
+      <c r="U46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -10305,9 +10337,11 @@
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
-      <c r="T47"/>
+      <c r="T47" t="n">
+        <v>0.0405679513184584</v>
+      </c>
       <c r="U47" t="n">
-        <v>0.528670191134608</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="48">
@@ -10334,7 +10368,7 @@
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.527597402597403</v>
       </c>
     </row>
     <row r="49">
@@ -10361,12 +10395,12 @@
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -10388,12 +10422,12 @@
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="n">
-        <v>1.99267995119967</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -10415,7 +10449,7 @@
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="n">
-        <v>0.0406669377795852</v>
+        <v>1.98863636363636</v>
       </c>
     </row>
     <row r="52">
@@ -10442,12 +10476,12 @@
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0405844155844156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -10469,12 +10503,12 @@
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
-        <v>0.0406669377795852</v>
+        <v>0.0811688311688312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -10496,7 +10530,34 @@
       <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="n">
-        <v>0.0813338755591704</v>
+        <v>0.0405844155844156</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55" t="n">
+        <v>0.0811688311688312</v>
       </c>
     </row>
   </sheetData>
@@ -10515,7 +10576,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -10723,7 +10784,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
@@ -10781,7 +10842,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -10799,7 +10860,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -10843,7 +10904,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -10996,7 +11057,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
